--- a/instruments.xlsx
+++ b/instruments.xlsx
@@ -16,11 +16,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Instrument_ID</t>
+  </si>
   <si>
     <t>Microscope</t>
   </si>
   <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Institute</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>Thermal</t>
+  </si>
+  <si>
+    <t>ABCDD</t>
+  </si>
+  <si>
     <t>AIMSS-J</t>
   </si>
   <si>
@@ -36,6 +78,12 @@
     <t>Microwave</t>
   </si>
   <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Chemical</t>
+  </si>
+  <si>
     <t>machine1</t>
   </si>
   <si>
@@ -69,6 +117,21 @@
     <t>machine11</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Instrument_Description</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
     <t>aaaaa</t>
   </si>
   <si>
@@ -76,48 +139,6 @@
   </si>
   <si>
     <t>ccccc</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>Bioimaging</t>
-  </si>
-  <si>
-    <t>Centrifuge</t>
-  </si>
-  <si>
-    <t>Cell Culture</t>
-  </si>
-  <si>
-    <t>Electrophoresis</t>
-  </si>
-  <si>
-    <t>Chromatography</t>
-  </si>
-  <si>
-    <t>Spectroscopy</t>
-  </si>
-  <si>
-    <t>Xray</t>
-  </si>
-  <si>
-    <t>instrumentname</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>instrumentquantity</t>
-  </si>
-  <si>
-    <t>instrumentdescription</t>
-  </si>
-  <si>
-    <t>institute</t>
-  </si>
-  <si>
-    <t>IID</t>
   </si>
 </sst>
 </file>
@@ -168,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,9 +201,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -479,337 +497,529 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="21.5703125" style="2"/>
-    <col min="5" max="6" width="25.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="21.5703125" style="2"/>
+    <col min="1" max="8" width="21.5703125" style="2"/>
+    <col min="9" max="9" width="25.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="21.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
+      <c r="B2" s="2">
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2">
         <v>4</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
+      <c r="B3" s="2">
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2">
         <v>4</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+      <c r="B4" s="2">
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
+      <c r="B5" s="2">
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
+      <c r="B6" s="2">
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
+      <c r="B7" s="2">
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
+      <c r="B8" s="2">
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
+      <c r="B9" s="2">
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
+      <c r="B10" s="2">
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2">
         <v>9</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
+      <c r="B11" s="2">
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="H11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
+      <c r="B12" s="2">
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="H13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
+      <c r="B14" s="2">
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="2">
         <v>9</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="H14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
+      <c r="B15" s="2">
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2">
         <v>2</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
+      <c r="B16" s="2">
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="2">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="2">
         <v>11</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>1</v>
+      <c r="I16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
